--- a/Reporting/summary_output.xlsx
+++ b/Reporting/summary_output.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mustafacressive.com/Personal/KPWS/EEMv2/Reporting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevWork\EEM-2\EEM-2\Reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FC56C1-28B9-D342-87F4-7A4C338F9D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B872878-8426-436A-86FC-2103ACBA9D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19785" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sc 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sc 1 Deck" sheetId="2" r:id="rId2"/>
+    <sheet name="Sc3" sheetId="1" r:id="rId1"/>
+    <sheet name="Sc3Deck" sheetId="2" r:id="rId2"/>
     <sheet name="Sc2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sc 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sc1" sheetId="4" r:id="rId4"/>
     <sheet name="solar profile" sheetId="6" r:id="rId5"/>
+    <sheet name="sc table" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="75">
   <si>
     <t>year</t>
   </si>
@@ -182,12 +184,371 @@
   <si>
     <t>Dec</t>
   </si>
+  <si>
+    <t>Scenario Description</t>
+  </si>
+  <si>
+    <t>Non-critical load shed events</t>
+  </si>
+  <si>
+    <t>Avg Cost ($/kWh)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Critical Load Interrupts.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a. Existing PV Plant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – 5 MW
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b. New PV Plant (Total 55 MW):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 40 MW (Year 1)
+- 5 MW (Year 3)
+- 5 MW (Year 5)
+- 5 MW (Year 8)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c. BESS (Total 95 MWh)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 60MWh (Year 1)
+- 5MWh (Year 3)
+- 10MWh (Year 5)
+- 10MWh (Year 8)
+- 10MWh ( Year 10)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">d. 6 x 1.5MW HSD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from Year 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a. Existing PV Plant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – 5 MW
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 55MW New PV Plant from Year 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">c. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">95 MWh BESS 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">d. 6 x 1.5MW HSD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from Year 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Total Cost for 12 years (M$)</t>
+  </si>
+  <si>
+    <t>This scenario has a high number of critical load interruptions as well as excessive Diesel generator use. Both are due to to inadequate solar output to charge BESS, especially during the rainy season.
+When BESS is discharged, sudden reductions in solar output (which are routine) cannot be handled by the system, thus causing critical load interruptions.
+Secondly, since PV is undersized to meet the BESS charging requirements, the gap is filled filled by diesel generators which naturally pushes the costs up.</t>
+  </si>
+  <si>
+    <t>Learning from Scenario 1, sizes of BESS and PV plant are now balanced. This leads to low consumption of diesel generators. Since BESS is adequately charged, sudden reduction in solar outputs can be handled seamlessly. 
+However both PV and BESS capacities are excessive, especially up till Year 6 which leads to under utilization and higher unit costs.</t>
+  </si>
+  <si>
+    <t>This scenario optimizes Scenario 2 by adding both PV and BESS capacity in phased manner, aligned with the projected demand. 
+Staged addition of PPA sources prevents underutilization.
+Also as seen in Scenario 2, higher ratio of PV to BESS capacities ensures that the vast majority of energy used to charge BESS comes from PV and not diesel. This helps in keep unit costs low.</t>
+  </si>
+  <si>
+    <t>Energy Requirement (MWh)</t>
+  </si>
+  <si>
+    <t>Existing Solar PPA  Cost of Operation (M $)</t>
+  </si>
+  <si>
+    <t>New Solar PPA Energy Output (MWh)</t>
+  </si>
+  <si>
+    <t>New Solar PPA Cost of Operation (M $)</t>
+  </si>
+  <si>
+    <t>New Solar PPA Unit Cost ($/kWh)</t>
+  </si>
+  <si>
+    <t>BESS PPA Energy Output (MWh)</t>
+  </si>
+  <si>
+    <t>BESS PPA Cost of Operation (M $)</t>
+  </si>
+  <si>
+    <t>BESS PPA Unit Cost ($/kWh)</t>
+  </si>
+  <si>
+    <t>DG Sets Energy Output (MWh)</t>
+  </si>
+  <si>
+    <t>DG Sets Cost of Operation (M $)</t>
+  </si>
+  <si>
+    <t>DG Sets Unit Cost ($/kWh)</t>
+  </si>
+  <si>
+    <t>Existing Solar PPA Energy Output (MWh)</t>
+  </si>
+  <si>
+    <t>Total Cost 
+(M $)</t>
+  </si>
+  <si>
+    <t>Total Energy Cost as % of Year 12 Cost</t>
+  </si>
+  <si>
+    <t>Energy Requirement as % of Year 12 requirement</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a. Existing PV Plant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – 5 MW
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 35MW New PV Plant from Year 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c. 130</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MWh BESS 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">d. 6 x 1.5MW HSD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from Year 1</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,13 +577,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,7 +648,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -259,26 +671,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -294,14 +692,259 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -317,7 +960,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -393,7 +1036,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sc 1 Deck'!$A$2:$A$13</c:f>
+              <c:f>Sc3Deck!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -438,9 +1081,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sc 1 Deck'!$I$2:$I$13</c:f>
+              <c:f>Sc3Deck!$J$3:$J$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>5571.09</c:v>
@@ -505,7 +1148,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sc 1 Deck'!$A$2:$A$13</c:f>
+              <c:f>Sc3Deck!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -550,9 +1193,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sc 1 Deck'!$L$2:$L$13</c:f>
+              <c:f>Sc3Deck!$M$3:$M$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>31517.14</c:v>
@@ -617,7 +1260,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sc 1 Deck'!$A$2:$A$13</c:f>
+              <c:f>Sc3Deck!$B$3:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -662,9 +1305,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sc 1 Deck'!$R$2:$R$13</c:f>
+              <c:f>Sc3Deck!$S$3:$S$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4259.62</c:v>
@@ -866,7 +1509,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -963,7 +1606,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1137,7 +1780,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sc 1 Deck'!$W$1:$Y$1</c:f>
+              <c:f>Sc3Deck!$X$2:$Z$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1154,7 +1797,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sc 1 Deck'!$W$2:$Y$2</c:f>
+              <c:f>Sc3Deck!$X$3:$Z$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1250,7 +1893,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1432,7 +2075,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sc 1 Deck'!$W$1:$Z$1</c:f>
+              <c:f>Sc3Deck!$X$2:$AA$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1452,7 +2095,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sc 1 Deck'!$W$3:$Z$3</c:f>
+              <c:f>Sc3Deck!$X$4:$AA$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1551,7 +2194,775 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparison of Cost vs Energy Requirement Increase for Scenario</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>-2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sc2'!$AB$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Energy Requirement as % of Year 12 requirement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sc2'!$AB$17:$AB$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>73.684215104192944</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.684215104192944</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.947372083354352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.947372083354352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.315802291740241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.315802291740241</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.315802291740241</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.736843020838592</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.736843020838592</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.736843020838592</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-33A9-4D76-B2FD-8E61D7D20521}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sc2'!$AC$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Energy Cost as % of Year 12 Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sc2'!$AC$17:$AC$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>92.199170124481327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.199170124481327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.195020746887963</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.195020746887963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.020746887966794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.020746887966794</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.020746887966794</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.759336099585056</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.759336099585056</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.759336099585056</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-33A9-4D76-B2FD-8E61D7D20521}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="405017055"/>
+        <c:axId val="405018015"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="405017055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405018015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="405018015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405017055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sc1'!$X$20:$Z$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Existing Solar PPA Energy Output (MWh)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>New Solar PPA Energy Output (MWh)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DG Sets Energy Output (MWh)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sc1'!$X$21:$Z$21</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>69940.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>330055.56999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184442.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-859F-4BA3-B4EA-B670E847CA68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.62406189979847237"/>
+          <c:y val="0.2747756882727358"/>
+          <c:w val="0.35843593080533409"/>
+          <c:h val="0.45044862345452841"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2013,7 +3424,1107 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2520,15 +5031,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>442911</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2556,15 +5067,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>358253</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>99799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>39806</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>70797</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2592,15 +5103,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>189685</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>145597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>464852</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>33390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2630,6 +5141,88 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>506412</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>118892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>389181</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>126779</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6268D594-82C3-CC98-9918-E0A686B8654E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>408754</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>436419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>73901</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>90323</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6DB0685-261D-52BE-4644-86086744F876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2668,6 +5261,30 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F8AD360-6D2A-4354-BAE9-5854AB4AC5F3}" name="Table1" displayName="Table1" ref="C4:I7" totalsRowShown="0" headerRowDxfId="0" dataDxfId="3">
+  <autoFilter ref="C4:I7" xr:uid="{3F8AD360-6D2A-4354-BAE9-5854AB4AC5F3}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{919A6982-3D3E-454C-8145-D31780248217}" name="No." dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{3E726BD8-D430-4EC1-90A8-C1702647FE16}" name="Scenario Description" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{BCC452E5-6B60-4042-8DC1-0A8EA9F60B4D}" name="Critical Load Interrupts." dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{95F9473F-0F3C-41DE-8F78-EBE5FF665E42}" name="Non-critical load shed events" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{A4AD9720-9703-471D-AF80-7479DB80F919}" name="Avg Cost ($/kWh)" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{44B1573D-551A-4B96-AAEA-493BA9C5BD61}" name="Total Cost for 12 years (M$)" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{5EE20792-A82A-42DD-88D6-E3A25C91CC74}" name="Notes" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2958,15 +5575,15 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView zoomScale="105" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="H2" sqref="H2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="20" width="9.1640625" style="1" customWidth="1"/>
+    <col min="1" max="20" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3028,7 +5645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3090,7 +5707,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3152,7 +5769,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3214,7 +5831,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3276,7 +5893,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3338,7 +5955,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3400,7 +6017,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3462,7 +6079,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3524,7 +6141,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3586,7 +6203,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3648,7 +6265,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3710,7 +6327,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3772,7 +6389,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -3783,7 +6400,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -3794,12 +6411,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>40</v>
       </c>
@@ -3810,7 +6427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>5</v>
       </c>
@@ -3821,7 +6438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>5</v>
       </c>
@@ -3832,7 +6449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <v>5</v>
       </c>
@@ -3843,12 +6460,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
         <v>60</v>
       </c>
@@ -3859,7 +6476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D24" s="1">
         <v>5</v>
       </c>
@@ -3870,7 +6487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D25" s="1">
         <v>10</v>
       </c>
@@ -3881,7 +6498,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D26" s="1">
         <v>10</v>
       </c>
@@ -3892,7 +6509,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D27" s="1">
         <v>10</v>
       </c>
@@ -3910,862 +6527,886 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="B2:AA15"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView zoomScale="113" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="20" width="9.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="21" width="13.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="2:27" ht="51" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B3" s="22">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="23">
+        <v>42357.15</v>
+      </c>
+      <c r="D3" s="22">
+        <v>100</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="G3" s="22">
+        <v>4</v>
+      </c>
+      <c r="H3" s="22">
+        <v>8.36</v>
+      </c>
+      <c r="I3" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="J3" s="24">
+        <v>5571.09</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="L3" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="M3" s="24">
+        <v>31517.14</v>
+      </c>
+      <c r="N3" s="22">
+        <v>2.76</v>
+      </c>
+      <c r="O3" s="22">
+        <v>0.09</v>
+      </c>
+      <c r="P3" s="24">
+        <v>23220.32</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>4.08</v>
+      </c>
+      <c r="R3" s="22">
+        <v>0.18</v>
+      </c>
+      <c r="S3" s="24">
+        <v>4259.62</v>
+      </c>
+      <c r="T3" s="22">
+        <v>1.23</v>
+      </c>
+      <c r="U3" s="22">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X3" s="6">
+        <f>SUM(J3:J14)/1000</f>
+        <v>66.734850000000009</v>
+      </c>
+      <c r="Y3" s="6">
+        <f>SUM(M3:M14)/1000</f>
+        <v>467.21785999999997</v>
+      </c>
+      <c r="Z3" s="6">
+        <f>SUM(S3:S14)/1000</f>
+        <v>54.404199999999989</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B4" s="22">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C4" s="23">
+        <v>42357.15</v>
+      </c>
+      <c r="D4" s="22">
+        <v>100</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22">
+        <v>5</v>
+      </c>
+      <c r="H4" s="22">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="I4" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="24">
+        <v>5569.64</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="L4" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="M4" s="24">
+        <v>31575.19</v>
+      </c>
+      <c r="N4" s="22">
+        <v>2.76</v>
+      </c>
+      <c r="O4" s="22">
+        <v>0.09</v>
+      </c>
+      <c r="P4" s="24">
+        <v>23217.84</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>4.08</v>
+      </c>
+      <c r="R4" s="22">
+        <v>0.18</v>
+      </c>
+      <c r="S4" s="24">
+        <v>4273.46</v>
+      </c>
+      <c r="T4" s="22">
+        <v>1.23</v>
+      </c>
+      <c r="U4" s="22">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X4">
+        <f>SUM(K3:K14)</f>
+        <v>2.52</v>
+      </c>
+      <c r="Y4">
+        <f>SUM(N3:N14)</f>
+        <v>41.240000000000009</v>
+      </c>
+      <c r="Z4" s="5">
+        <f>SUM(T3:T14)</f>
+        <v>15.549999999999997</v>
+      </c>
+      <c r="AA4" s="5">
+        <f>SUM(Q3:Q14)</f>
+        <v>63.240000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B5" s="22">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C5" s="23">
+        <v>45382.66</v>
+      </c>
+      <c r="D5" s="22">
+        <v>100</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0</v>
+      </c>
+      <c r="G5" s="22">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H5" s="22">
+        <v>8.94</v>
+      </c>
+      <c r="I5" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="24">
+        <v>5585.42</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="L5" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="M5" s="24">
+        <v>34588.18</v>
+      </c>
+      <c r="N5" s="22">
+        <v>3.1</v>
+      </c>
+      <c r="O5" s="22">
+        <v>0.09</v>
+      </c>
+      <c r="P5" s="24">
+        <v>25051.48</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>4.42</v>
+      </c>
+      <c r="R5" s="22">
+        <v>0.18</v>
+      </c>
+      <c r="S5" s="24">
+        <v>4212.78</v>
+      </c>
+      <c r="T5" s="22">
+        <v>1.21</v>
+      </c>
+      <c r="U5" s="22">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B6" s="22">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23">
+        <v>45382.66</v>
+      </c>
+      <c r="D6" s="22">
+        <v>100</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22">
+        <v>4</v>
+      </c>
+      <c r="H6" s="22">
+        <v>8.93</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="24">
+        <v>5585.29</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="M6" s="24">
+        <v>34547.15</v>
+      </c>
+      <c r="N6" s="22">
+        <v>3.1</v>
+      </c>
+      <c r="O6" s="22">
+        <v>0.09</v>
+      </c>
+      <c r="P6" s="24">
+        <v>25012.27</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>4.42</v>
+      </c>
+      <c r="R6" s="22">
+        <v>0.18</v>
+      </c>
+      <c r="S6" s="24">
+        <v>4193.67</v>
+      </c>
+      <c r="T6" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="U6" s="22">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B7" s="22">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C7" s="23">
+        <v>49618.38</v>
+      </c>
+      <c r="D7" s="22">
+        <v>100</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22">
+        <v>5</v>
+      </c>
+      <c r="H7" s="22">
+        <v>9.99</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="24">
+        <v>5548.18</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="M7" s="24">
+        <v>38668.18</v>
+      </c>
+      <c r="N7" s="22">
+        <v>3.46</v>
+      </c>
+      <c r="O7" s="22">
+        <v>0.09</v>
+      </c>
+      <c r="P7" s="24">
+        <v>27740.17</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R7" s="22">
+        <v>0.18</v>
+      </c>
+      <c r="S7" s="24">
+        <v>4246.42</v>
+      </c>
+      <c r="T7" s="22">
+        <v>1.22</v>
+      </c>
+      <c r="U7" s="22">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B8" s="22">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C8" s="23">
+        <v>49618.38</v>
+      </c>
+      <c r="D8" s="22">
+        <v>100</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
+      <c r="G8" s="22">
+        <v>6</v>
+      </c>
+      <c r="H8" s="22">
+        <v>9.99</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="24">
+        <v>5549.72</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="M8" s="24">
+        <v>38602.28</v>
+      </c>
+      <c r="N8" s="22">
+        <v>3.46</v>
+      </c>
+      <c r="O8" s="22">
+        <v>0.09</v>
+      </c>
+      <c r="P8" s="24">
+        <v>27743.03</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R8" s="22">
+        <v>0.18</v>
+      </c>
+      <c r="S8" s="24">
+        <v>4258.21</v>
+      </c>
+      <c r="T8" s="22">
+        <v>1.22</v>
+      </c>
+      <c r="U8" s="22">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B9" s="22">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="C9" s="23">
+        <v>49618.38</v>
+      </c>
+      <c r="D9" s="22">
+        <v>100</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22">
+        <v>6</v>
+      </c>
+      <c r="H9" s="22">
+        <v>9.99</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="24">
+        <v>5548.18</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="M9" s="24">
+        <v>38689.56</v>
+      </c>
+      <c r="N9" s="22">
+        <v>3.46</v>
+      </c>
+      <c r="O9" s="22">
+        <v>0.09</v>
+      </c>
+      <c r="P9" s="24">
+        <v>27706.75</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R9" s="22">
+        <v>0.18</v>
+      </c>
+      <c r="S9" s="24">
+        <v>4251.2</v>
+      </c>
+      <c r="T9" s="22">
+        <v>1.22</v>
+      </c>
+      <c r="U9" s="22">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B10" s="22">
+        <v>8</v>
+      </c>
+      <c r="C10" s="23">
+        <v>54459.19</v>
+      </c>
+      <c r="D10" s="22">
+        <v>100</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0</v>
+      </c>
+      <c r="G10" s="22">
+        <v>4</v>
+      </c>
+      <c r="H10" s="22">
+        <v>11.13</v>
+      </c>
+      <c r="I10" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="24">
+        <v>5524.34</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="M10" s="24">
+        <v>42962.25</v>
+      </c>
+      <c r="N10" s="22">
+        <v>3.82</v>
+      </c>
+      <c r="O10" s="22">
+        <v>0.09</v>
+      </c>
+      <c r="P10" s="24">
+        <v>30439.040000000001</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>5.78</v>
+      </c>
+      <c r="R10" s="22">
+        <v>0.19</v>
+      </c>
+      <c r="S10" s="24">
+        <v>4681.34</v>
+      </c>
+      <c r="T10" s="22">
+        <v>1.32</v>
+      </c>
+      <c r="U10" s="22">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B11" s="22">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="C11" s="23">
+        <v>54459.19</v>
+      </c>
+      <c r="D11" s="22">
+        <v>100</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+      <c r="G11" s="22">
+        <v>3</v>
+      </c>
+      <c r="H11" s="22">
+        <v>11.14</v>
+      </c>
+      <c r="I11" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="24">
+        <v>5525.56</v>
+      </c>
+      <c r="K11" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="L11" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="M11" s="24">
+        <v>42981.120000000003</v>
+      </c>
+      <c r="N11" s="22">
+        <v>3.82</v>
+      </c>
+      <c r="O11" s="22">
+        <v>0.09</v>
+      </c>
+      <c r="P11" s="24">
+        <v>30425.78</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>5.78</v>
+      </c>
+      <c r="R11" s="22">
+        <v>0.19</v>
+      </c>
+      <c r="S11" s="24">
+        <v>4692.54</v>
+      </c>
+      <c r="T11" s="22">
+        <v>1.33</v>
+      </c>
+      <c r="U11" s="22">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B12" s="22">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="C12" s="23">
+        <v>54459.19</v>
+      </c>
+      <c r="D12" s="22">
+        <v>100</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="22">
+        <v>3</v>
+      </c>
+      <c r="H12" s="22">
+        <v>11.78</v>
+      </c>
+      <c r="I12" s="22">
+        <v>0.22</v>
+      </c>
+      <c r="J12" s="24">
+        <v>5526.62</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="L12" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="M12" s="24">
+        <v>43107.54</v>
+      </c>
+      <c r="N12" s="22">
+        <v>3.82</v>
+      </c>
+      <c r="O12" s="22">
+        <v>0.09</v>
+      </c>
+      <c r="P12" s="24">
+        <v>30699.41</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>6.46</v>
+      </c>
+      <c r="R12" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="S12" s="24">
+        <v>4529.67</v>
+      </c>
+      <c r="T12" s="22">
+        <v>1.29</v>
+      </c>
+      <c r="U12" s="22">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="22">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="C13" s="23">
+        <v>57484.7</v>
+      </c>
+      <c r="D13" s="22">
+        <v>100</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22">
+        <v>4</v>
+      </c>
+      <c r="H13" s="22">
+        <v>12.05</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="J13" s="24">
+        <v>5602.35</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="L13" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="M13" s="24">
+        <v>45019.18</v>
+      </c>
+      <c r="N13" s="22">
+        <v>3.84</v>
+      </c>
+      <c r="O13" s="22">
+        <v>0.09</v>
+      </c>
+      <c r="P13" s="24">
+        <v>32142.47</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>6.46</v>
+      </c>
+      <c r="R13" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="S13" s="24">
+        <v>5388.91</v>
+      </c>
+      <c r="T13" s="22">
+        <v>1.54</v>
+      </c>
+      <c r="U13" s="22">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="22">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>42357.15</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="C14" s="23">
+        <v>57484.7</v>
+      </c>
+      <c r="D14" s="22">
         <v>100</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="G14" s="22">
         <v>4</v>
       </c>
-      <c r="G2" s="1">
-        <v>8.36</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="H14" s="22">
+        <v>12.05</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="J14" s="24">
+        <v>5598.46</v>
+      </c>
+      <c r="K14" s="22">
+        <v>0.21</v>
+      </c>
+      <c r="L14" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="M14" s="24">
+        <v>44960.09</v>
+      </c>
+      <c r="N14" s="22">
+        <v>3.84</v>
+      </c>
+      <c r="O14" s="22">
+        <v>0.09</v>
+      </c>
+      <c r="P14" s="24">
+        <v>32132.7</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>6.46</v>
+      </c>
+      <c r="R14" s="22">
         <v>0.2</v>
       </c>
-      <c r="I2" s="1">
-        <v>5571.09</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L2" s="1">
-        <v>31517.14</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2.76</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="O2" s="1">
-        <v>23220.32</v>
-      </c>
-      <c r="P2" s="1">
-        <v>4.08</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="R2" s="1">
-        <v>4259.62</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1.23</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="W2" s="6">
-        <f>SUM(I2:I13)/1000</f>
-        <v>66.734850000000009</v>
-      </c>
-      <c r="X2" s="6">
-        <f>SUM(L2:L13)/1000</f>
-        <v>467.21785999999997</v>
-      </c>
-      <c r="Y2" s="6">
-        <f>SUM(R2:R13)/1000</f>
-        <v>54.404199999999989</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42357.15</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I3" s="1">
-        <v>5569.64</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L3" s="1">
-        <v>31575.19</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2.76</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="O3" s="1">
-        <v>23217.84</v>
-      </c>
-      <c r="P3" s="1">
-        <v>4.08</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="R3" s="1">
-        <v>4273.46</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1.23</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="W3">
-        <f>SUM(J2:J13)</f>
-        <v>2.52</v>
-      </c>
-      <c r="X3">
-        <f>SUM(M2:M13)</f>
-        <v>41.240000000000009</v>
-      </c>
-      <c r="Y3" s="5">
-        <f>SUM(S2:S13)</f>
-        <v>15.549999999999997</v>
-      </c>
-      <c r="Z3" s="5">
-        <f>SUM(P2:P13)</f>
-        <v>63.240000000000009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45382.66</v>
-      </c>
-      <c r="C4" s="1">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1">
-        <v>8.94</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>5585.42</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L4" s="1">
-        <v>34588.18</v>
-      </c>
-      <c r="M4" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="O4" s="1">
-        <v>25051.48</v>
-      </c>
-      <c r="P4" s="1">
-        <v>4.42</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="R4" s="1">
-        <v>4212.78</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1.21</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45382.66</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1">
-        <v>8.93</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>5585.29</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L5" s="1">
-        <v>34547.15</v>
-      </c>
-      <c r="M5" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="O5" s="1">
-        <v>25012.27</v>
-      </c>
-      <c r="P5" s="1">
-        <v>4.42</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="R5" s="1">
-        <v>4193.67</v>
-      </c>
-      <c r="S5" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>49618.38</v>
-      </c>
-      <c r="C6" s="1">
-        <v>100</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1">
-        <v>9.99</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I6" s="1">
-        <v>5548.18</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L6" s="1">
-        <v>38668.18</v>
-      </c>
-      <c r="M6" s="1">
-        <v>3.46</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="O6" s="1">
-        <v>27740.17</v>
-      </c>
-      <c r="P6" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="R6" s="1">
-        <v>4246.42</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1.22</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>49618.38</v>
-      </c>
-      <c r="C7" s="1">
-        <v>100</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1">
-        <v>9.99</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>5549.72</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L7" s="1">
-        <v>38602.28</v>
-      </c>
-      <c r="M7" s="1">
-        <v>3.46</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="O7" s="1">
-        <v>27743.03</v>
-      </c>
-      <c r="P7" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="R7" s="1">
-        <v>4258.21</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1.22</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>49618.38</v>
-      </c>
-      <c r="C8" s="1">
-        <v>100</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>6</v>
-      </c>
-      <c r="G8" s="1">
-        <v>9.99</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I8" s="1">
-        <v>5548.18</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L8" s="1">
-        <v>38689.56</v>
-      </c>
-      <c r="M8" s="1">
-        <v>3.46</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="O8" s="1">
-        <v>27706.75</v>
-      </c>
-      <c r="P8" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="R8" s="1">
-        <v>4251.2</v>
-      </c>
-      <c r="S8" s="1">
-        <v>1.22</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>54459.19</v>
-      </c>
-      <c r="C9" s="1">
-        <v>100</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4</v>
-      </c>
-      <c r="G9" s="1">
-        <v>11.13</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I9" s="1">
-        <v>5524.34</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L9" s="1">
-        <v>42962.25</v>
-      </c>
-      <c r="M9" s="1">
-        <v>3.82</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="O9" s="1">
-        <v>30439.040000000001</v>
-      </c>
-      <c r="P9" s="1">
-        <v>5.78</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="R9" s="1">
-        <v>4681.34</v>
-      </c>
-      <c r="S9" s="1">
-        <v>1.32</v>
-      </c>
-      <c r="T9" s="1">
+      <c r="S14" s="24">
+        <v>5416.38</v>
+      </c>
+      <c r="T14" s="22">
+        <v>1.54</v>
+      </c>
+      <c r="U14" s="22">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>54459.19</v>
-      </c>
-      <c r="C10" s="1">
-        <v>100</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1">
-        <v>11.14</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="I10" s="1">
-        <v>5525.56</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L10" s="1">
-        <v>42981.120000000003</v>
-      </c>
-      <c r="M10" s="1">
-        <v>3.82</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="O10" s="1">
-        <v>30425.78</v>
-      </c>
-      <c r="P10" s="1">
-        <v>5.78</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="R10" s="1">
-        <v>4692.54</v>
-      </c>
-      <c r="S10" s="1">
-        <v>1.33</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>54459.19</v>
-      </c>
-      <c r="C11" s="1">
-        <v>100</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>11.78</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="I11" s="1">
-        <v>5526.62</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L11" s="1">
-        <v>43107.54</v>
-      </c>
-      <c r="M11" s="1">
-        <v>3.82</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="O11" s="1">
-        <v>30699.41</v>
-      </c>
-      <c r="P11" s="1">
-        <v>6.46</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="R11" s="1">
-        <v>4529.67</v>
-      </c>
-      <c r="S11" s="1">
-        <v>1.29</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>57484.7</v>
-      </c>
-      <c r="C12" s="1">
-        <v>100</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1">
-        <v>12.05</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="I12" s="1">
-        <v>5602.35</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L12" s="1">
-        <v>45019.18</v>
-      </c>
-      <c r="M12" s="1">
-        <v>3.84</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="O12" s="1">
-        <v>32142.47</v>
-      </c>
-      <c r="P12" s="1">
-        <v>6.46</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R12" s="1">
-        <v>5388.91</v>
-      </c>
-      <c r="S12" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>57484.7</v>
-      </c>
-      <c r="C13" s="1">
-        <v>100</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4</v>
-      </c>
-      <c r="G13" s="1">
-        <v>12.05</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="I13" s="1">
-        <v>5598.46</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L13" s="1">
-        <v>44960.09</v>
-      </c>
-      <c r="M13" s="1">
-        <v>3.84</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="O13" s="1">
-        <v>32132.7</v>
-      </c>
-      <c r="P13" s="1">
-        <v>6.46</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R13" s="1">
-        <v>5416.38</v>
-      </c>
-      <c r="S13" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0.28000000000000003</v>
-      </c>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4775,1749 +7416,1983 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="C2:AC28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="D1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="20" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
+    <col min="4" max="10" width="11.7109375" style="1" customWidth="1"/>
+    <col min="11" max="22" width="13.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="2" spans="3:29" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="C2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18">
+        <v>42357.15</v>
+      </c>
+      <c r="E3" s="16">
+        <v>100</v>
+      </c>
+      <c r="F3" s="16">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="G3" s="16">
+        <v>0</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16">
+        <v>11.11</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="K3" s="20">
+        <v>5444.48</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="M3" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="N3" s="20">
+        <v>33817.800000000003</v>
+      </c>
+      <c r="O3" s="16">
+        <v>3.78</v>
+      </c>
+      <c r="P3" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>23913.13</v>
+      </c>
+      <c r="R3" s="16">
+        <v>6.46</v>
+      </c>
+      <c r="S3" s="16">
+        <v>0.27</v>
+      </c>
+      <c r="T3" s="20">
+        <v>2289.4899999999998</v>
+      </c>
+      <c r="U3" s="16">
+        <v>0.66</v>
+      </c>
+      <c r="V3" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C4" s="16">
+        <v>2</v>
+      </c>
+      <c r="D4" s="18">
+        <v>42357.15</v>
+      </c>
+      <c r="E4" s="16">
+        <v>100</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <v>11.11</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="K4" s="20">
+        <v>5450.87</v>
+      </c>
+      <c r="L4" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="M4" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="N4" s="20">
+        <v>33805.22</v>
+      </c>
+      <c r="O4" s="16">
+        <v>3.78</v>
+      </c>
+      <c r="P4" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>23903.16</v>
+      </c>
+      <c r="R4" s="16">
+        <v>6.46</v>
+      </c>
+      <c r="S4" s="16">
+        <v>0.27</v>
+      </c>
+      <c r="T4" s="20">
+        <v>2273.0700000000002</v>
+      </c>
+      <c r="U4" s="16">
+        <v>0.66</v>
+      </c>
+      <c r="V4" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C5" s="16">
+        <v>3</v>
+      </c>
+      <c r="D5" s="18">
+        <v>45382.66</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16">
+        <v>11.23</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="K5" s="20">
+        <v>5499.88</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="N5" s="20">
+        <v>36313.26</v>
+      </c>
+      <c r="O5" s="16">
+        <v>3.78</v>
+      </c>
+      <c r="P5" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>25758.5</v>
+      </c>
+      <c r="R5" s="16">
+        <v>6.46</v>
+      </c>
+      <c r="S5" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="T5" s="20">
+        <v>2651.15</v>
+      </c>
+      <c r="U5" s="16">
+        <v>0.78</v>
+      </c>
+      <c r="V5" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C6" s="16">
+        <v>4</v>
+      </c>
+      <c r="D6" s="18">
+        <v>45382.66</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>11.23</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="K6" s="20">
+        <v>5518.23</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="N6" s="20">
+        <v>36296.769999999997</v>
+      </c>
+      <c r="O6" s="16">
+        <v>3.78</v>
+      </c>
+      <c r="P6" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>25737.13</v>
+      </c>
+      <c r="R6" s="16">
+        <v>6.46</v>
+      </c>
+      <c r="S6" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="T6" s="20">
+        <v>2640.84</v>
+      </c>
+      <c r="U6" s="16">
+        <v>0.78</v>
+      </c>
+      <c r="V6" s="16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C7" s="16">
+        <v>5</v>
+      </c>
+      <c r="D7" s="18">
+        <v>49618.38</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>11.45</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.23</v>
+      </c>
+      <c r="K7" s="20">
+        <v>5520.68</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="N7" s="20">
+        <v>39629.74</v>
+      </c>
+      <c r="O7" s="16">
+        <v>3.79</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>28244.15</v>
+      </c>
+      <c r="R7" s="16">
+        <v>6.46</v>
+      </c>
+      <c r="S7" s="16">
+        <v>0.23</v>
+      </c>
+      <c r="T7" s="20">
+        <v>3399.13</v>
+      </c>
+      <c r="U7" s="16">
+        <v>0.99</v>
+      </c>
+      <c r="V7" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C8" s="16">
+        <v>6</v>
+      </c>
+      <c r="D8" s="18">
+        <v>49618.38</v>
+      </c>
+      <c r="E8" s="16">
+        <v>100</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>11.45</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0.23</v>
+      </c>
+      <c r="K8" s="20">
+        <v>5519.97</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="N8" s="20">
+        <v>39627.879999999997</v>
+      </c>
+      <c r="O8" s="16">
+        <v>3.79</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>28246.23</v>
+      </c>
+      <c r="R8" s="16">
+        <v>6.46</v>
+      </c>
+      <c r="S8" s="16">
+        <v>0.23</v>
+      </c>
+      <c r="T8" s="20">
+        <v>3398.16</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0.99</v>
+      </c>
+      <c r="V8" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C9" s="16">
+        <v>7</v>
+      </c>
+      <c r="D9" s="18">
+        <v>49618.38</v>
+      </c>
+      <c r="E9" s="16">
+        <v>100</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
+        <v>11.45</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0.23</v>
+      </c>
+      <c r="K9" s="20">
+        <v>5510.66</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="N9" s="20">
+        <v>39631.660000000003</v>
+      </c>
+      <c r="O9" s="16">
+        <v>3.79</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>28225.81</v>
+      </c>
+      <c r="R9" s="16">
+        <v>6.46</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0.23</v>
+      </c>
+      <c r="T9" s="20">
+        <v>3391.6</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0.99</v>
+      </c>
+      <c r="V9" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C10" s="16">
+        <v>8</v>
+      </c>
+      <c r="D10" s="18">
+        <v>54459.19</v>
+      </c>
+      <c r="E10" s="16">
+        <v>100</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>3</v>
+      </c>
+      <c r="I10" s="16">
+        <v>11.78</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="K10" s="20">
+        <v>5520.15</v>
+      </c>
+      <c r="L10" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="M10" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="N10" s="20">
+        <v>43081.38</v>
+      </c>
+      <c r="O10" s="16">
+        <v>3.82</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>30715.65</v>
+      </c>
+      <c r="R10" s="16">
+        <v>6.46</v>
+      </c>
+      <c r="S10" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="T10" s="20">
+        <v>4530.24</v>
+      </c>
+      <c r="U10" s="16">
+        <v>1.29</v>
+      </c>
+      <c r="V10" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C11" s="16">
+        <v>9</v>
+      </c>
+      <c r="D11" s="18">
+        <v>54459.19</v>
+      </c>
+      <c r="E11" s="16">
+        <v>100</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>3</v>
+      </c>
+      <c r="I11" s="16">
+        <v>11.78</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="K11" s="20">
+        <v>5524.81</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="N11" s="20">
+        <v>43097.46</v>
+      </c>
+      <c r="O11" s="16">
+        <v>3.82</v>
+      </c>
+      <c r="P11" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>30711.439999999999</v>
+      </c>
+      <c r="R11" s="16">
+        <v>6.46</v>
+      </c>
+      <c r="S11" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="T11" s="20">
+        <v>4562.57</v>
+      </c>
+      <c r="U11" s="16">
+        <v>1.29</v>
+      </c>
+      <c r="V11" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C12" s="16">
+        <v>10</v>
+      </c>
+      <c r="D12" s="18">
+        <v>54459.19</v>
+      </c>
+      <c r="E12" s="16">
+        <v>100</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>3</v>
+      </c>
+      <c r="I12" s="16">
+        <v>11.78</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="K12" s="20">
+        <v>5527.16</v>
+      </c>
+      <c r="L12" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="N12" s="20">
+        <v>43105.47</v>
+      </c>
+      <c r="O12" s="16">
+        <v>3.82</v>
+      </c>
+      <c r="P12" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>30712.27</v>
+      </c>
+      <c r="R12" s="16">
+        <v>6.46</v>
+      </c>
+      <c r="S12" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="T12" s="20">
+        <v>4537.49</v>
+      </c>
+      <c r="U12" s="16">
+        <v>1.29</v>
+      </c>
+      <c r="V12" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C13" s="16">
+        <v>11</v>
+      </c>
+      <c r="D13" s="18">
+        <v>57484.7</v>
+      </c>
+      <c r="E13" s="16">
+        <v>100</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+      <c r="H13" s="16">
+        <v>4</v>
+      </c>
+      <c r="I13" s="16">
+        <v>12.05</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="K13" s="20">
+        <v>5596.43</v>
+      </c>
+      <c r="L13" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="N13" s="20">
+        <v>44979.98</v>
+      </c>
+      <c r="O13" s="16">
+        <v>3.83</v>
+      </c>
+      <c r="P13" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>32117.75</v>
+      </c>
+      <c r="R13" s="16">
+        <v>6.46</v>
+      </c>
+      <c r="S13" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="T13" s="20">
+        <v>5405.29</v>
+      </c>
+      <c r="U13" s="16">
+        <v>1.55</v>
+      </c>
+      <c r="V13" s="16">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C14" s="16">
+        <v>12</v>
+      </c>
+      <c r="D14" s="18">
+        <v>57484.7</v>
+      </c>
+      <c r="E14" s="16">
+        <v>100</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>3</v>
+      </c>
+      <c r="I14" s="16">
+        <v>12.05</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="K14" s="20">
+        <v>5593.52</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="M14" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="N14" s="20">
+        <v>45010.47</v>
+      </c>
+      <c r="O14" s="16">
+        <v>3.84</v>
+      </c>
+      <c r="P14" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>32129.77</v>
+      </c>
+      <c r="R14" s="16">
+        <v>6.46</v>
+      </c>
+      <c r="S14" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="T14" s="20">
+        <v>5410.16</v>
+      </c>
+      <c r="U14" s="16">
+        <v>1.54</v>
+      </c>
+      <c r="V14" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="3:29" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="AA16" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB16" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC16" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA17" s="16">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="AB17" s="30">
+        <f t="shared" ref="AB17:AB27" si="0">D3*100/D$14</f>
+        <v>73.684215104192944</v>
+      </c>
+      <c r="AC17" s="30">
+        <f t="shared" ref="AC17:AC27" si="1">I3*100/I$14</f>
+        <v>92.199170124481327</v>
+      </c>
+    </row>
+    <row r="18" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA18" s="16">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="AB18" s="30">
+        <f t="shared" si="0"/>
+        <v>73.684215104192944</v>
+      </c>
+      <c r="AC18" s="30">
+        <f t="shared" si="1"/>
+        <v>92.199170124481327</v>
+      </c>
+    </row>
+    <row r="19" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1">
+        <v>95</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA19" s="16">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="AB19" s="30">
+        <f t="shared" si="0"/>
+        <v>78.947372083354352</v>
+      </c>
+      <c r="AC19" s="30">
+        <f t="shared" si="1"/>
+        <v>93.195020746887963</v>
+      </c>
+    </row>
+    <row r="20" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA20" s="16">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="AB20" s="30">
+        <f t="shared" si="0"/>
+        <v>78.947372083354352</v>
+      </c>
+      <c r="AC20" s="30">
+        <f t="shared" si="1"/>
+        <v>93.195020746887963</v>
+      </c>
+    </row>
+    <row r="21" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AA21" s="16">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="AB21" s="30">
+        <f t="shared" si="0"/>
+        <v>86.315802291740241</v>
+      </c>
+      <c r="AC21" s="30">
+        <f t="shared" si="1"/>
+        <v>95.020746887966794</v>
+      </c>
+    </row>
+    <row r="22" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AA22" s="16">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="AB22" s="30">
+        <f t="shared" si="0"/>
+        <v>86.315802291740241</v>
+      </c>
+      <c r="AC22" s="30">
+        <f t="shared" si="1"/>
+        <v>95.020746887966794</v>
+      </c>
+    </row>
+    <row r="23" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AA23" s="16">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="AB23" s="30">
+        <f t="shared" si="0"/>
+        <v>86.315802291740241</v>
+      </c>
+      <c r="AC23" s="30">
+        <f t="shared" si="1"/>
+        <v>95.020746887966794</v>
+      </c>
+    </row>
+    <row r="24" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AA24" s="16">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="AB24" s="30">
+        <f t="shared" si="0"/>
+        <v>94.736843020838592</v>
+      </c>
+      <c r="AC24" s="30">
+        <f t="shared" si="1"/>
+        <v>97.759336099585056</v>
+      </c>
+    </row>
+    <row r="25" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AA25" s="16">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="AB25" s="30">
+        <f t="shared" si="0"/>
+        <v>94.736843020838592</v>
+      </c>
+      <c r="AC25" s="30">
+        <f t="shared" si="1"/>
+        <v>97.759336099585056</v>
+      </c>
+    </row>
+    <row r="26" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AA26" s="16">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="AB26" s="30">
+        <f t="shared" si="0"/>
+        <v>94.736843020838592</v>
+      </c>
+      <c r="AC26" s="30">
+        <f t="shared" si="1"/>
+        <v>97.759336099585056</v>
+      </c>
+    </row>
+    <row r="27" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AA27" s="16">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="AB27" s="30">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="AC27" s="30">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="4:29" x14ac:dyDescent="0.25">
+      <c r="AA28" s="16">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>42357.15</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="AB28" s="30">
+        <f>D14*100/D$14</f>
         <v>100</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>11.11</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="I2" s="1">
-        <v>5444.48</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L2" s="1">
-        <v>33817.800000000003</v>
-      </c>
-      <c r="M2" s="1">
-        <v>3.78</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="O2" s="1">
-        <v>23913.13</v>
-      </c>
-      <c r="P2" s="1">
-        <v>6.46</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="R2" s="1">
-        <v>2289.4899999999998</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42357.15</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="AC28" s="30">
+        <f>I14*100/I$14</f>
         <v>100</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>11.11</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="I3" s="1">
-        <v>5450.87</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L3" s="1">
-        <v>33805.22</v>
-      </c>
-      <c r="M3" s="1">
-        <v>3.78</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="O3" s="1">
-        <v>23903.16</v>
-      </c>
-      <c r="P3" s="1">
-        <v>6.46</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="R3" s="1">
-        <v>2273.0700000000002</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45382.66</v>
-      </c>
-      <c r="C4" s="1">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>11.23</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="I4" s="1">
-        <v>5499.88</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L4" s="1">
-        <v>36313.26</v>
-      </c>
-      <c r="M4" s="1">
-        <v>3.78</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>25758.5</v>
-      </c>
-      <c r="P4" s="1">
-        <v>6.46</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="R4" s="1">
-        <v>2651.15</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45382.66</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>11.23</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="I5" s="1">
-        <v>5518.23</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L5" s="1">
-        <v>36296.769999999997</v>
-      </c>
-      <c r="M5" s="1">
-        <v>3.78</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>25737.13</v>
-      </c>
-      <c r="P5" s="1">
-        <v>6.46</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="R5" s="1">
-        <v>2640.84</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>49618.38</v>
-      </c>
-      <c r="C6" s="1">
-        <v>100</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>11.45</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="I6" s="1">
-        <v>5520.68</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L6" s="1">
-        <v>39629.74</v>
-      </c>
-      <c r="M6" s="1">
-        <v>3.79</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>28244.15</v>
-      </c>
-      <c r="P6" s="1">
-        <v>6.46</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="R6" s="1">
-        <v>3399.13</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>49618.38</v>
-      </c>
-      <c r="C7" s="1">
-        <v>100</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>11.45</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="I7" s="1">
-        <v>5519.97</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L7" s="1">
-        <v>39627.879999999997</v>
-      </c>
-      <c r="M7" s="1">
-        <v>3.79</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>28246.23</v>
-      </c>
-      <c r="P7" s="1">
-        <v>6.46</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="R7" s="1">
-        <v>3398.16</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>49618.38</v>
-      </c>
-      <c r="C8" s="1">
-        <v>100</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>11.45</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="I8" s="1">
-        <v>5510.66</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L8" s="1">
-        <v>39631.660000000003</v>
-      </c>
-      <c r="M8" s="1">
-        <v>3.79</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="O8" s="1">
-        <v>28225.81</v>
-      </c>
-      <c r="P8" s="1">
-        <v>6.46</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="R8" s="1">
-        <v>3391.6</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>54459.19</v>
-      </c>
-      <c r="C9" s="1">
-        <v>100</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1">
-        <v>11.78</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="I9" s="1">
-        <v>5520.15</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L9" s="1">
-        <v>43081.38</v>
-      </c>
-      <c r="M9" s="1">
-        <v>3.82</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="O9" s="1">
-        <v>30715.65</v>
-      </c>
-      <c r="P9" s="1">
-        <v>6.46</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="R9" s="1">
-        <v>4530.24</v>
-      </c>
-      <c r="S9" s="1">
-        <v>1.29</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>54459.19</v>
-      </c>
-      <c r="C10" s="1">
-        <v>100</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1">
-        <v>11.78</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="I10" s="1">
-        <v>5524.81</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L10" s="1">
-        <v>43097.46</v>
-      </c>
-      <c r="M10" s="1">
-        <v>3.82</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="O10" s="1">
-        <v>30711.439999999999</v>
-      </c>
-      <c r="P10" s="1">
-        <v>6.46</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="R10" s="1">
-        <v>4562.57</v>
-      </c>
-      <c r="S10" s="1">
-        <v>1.29</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>54459.19</v>
-      </c>
-      <c r="C11" s="1">
-        <v>100</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>11.78</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="I11" s="1">
-        <v>5527.16</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L11" s="1">
-        <v>43105.47</v>
-      </c>
-      <c r="M11" s="1">
-        <v>3.82</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="O11" s="1">
-        <v>30712.27</v>
-      </c>
-      <c r="P11" s="1">
-        <v>6.46</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="R11" s="1">
-        <v>4537.49</v>
-      </c>
-      <c r="S11" s="1">
-        <v>1.29</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>57484.7</v>
-      </c>
-      <c r="C12" s="1">
-        <v>100</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1">
-        <v>12.05</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="I12" s="1">
-        <v>5596.43</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L12" s="1">
-        <v>44979.98</v>
-      </c>
-      <c r="M12" s="1">
-        <v>3.83</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="O12" s="1">
-        <v>32117.75</v>
-      </c>
-      <c r="P12" s="1">
-        <v>6.46</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R12" s="1">
-        <v>5405.29</v>
-      </c>
-      <c r="S12" s="1">
-        <v>1.55</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>57484.7</v>
-      </c>
-      <c r="C13" s="1">
-        <v>100</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1">
-        <v>12.05</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="I13" s="1">
-        <v>5593.52</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L13" s="1">
-        <v>45010.47</v>
-      </c>
-      <c r="M13" s="1">
-        <v>3.84</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="O13" s="1">
-        <v>32129.77</v>
-      </c>
-      <c r="P13" s="1">
-        <v>6.46</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R13" s="1">
-        <v>5410.16</v>
-      </c>
-      <c r="S13" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17">
-        <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="1">
-        <v>95</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="1">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="B2:AH21"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="A19" zoomScale="116" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="20" width="9.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="9" width="11.7109375" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="13.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="1" customWidth="1"/>
+    <col min="14" max="18" width="13.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" style="1" customWidth="1"/>
+    <col min="20" max="21" width="13.7109375" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="2" spans="2:34" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="17">
+        <v>42357.15</v>
+      </c>
+      <c r="D3" s="16">
+        <v>100</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="G3" s="16">
+        <v>7</v>
+      </c>
+      <c r="H3" s="16">
+        <v>13.51</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0.32</v>
+      </c>
+      <c r="J3" s="18">
+        <v>5777.26</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="M3" s="18">
+        <v>26273.14</v>
+      </c>
+      <c r="N3" s="16">
+        <v>1.81</v>
+      </c>
+      <c r="O3" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P3" s="18">
+        <v>23932.1</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="R3" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="S3" s="18">
+        <v>8675.8700000000008</v>
+      </c>
+      <c r="T3" s="16">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="U3" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B4" s="16">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="C4" s="17">
+        <v>42357.15</v>
+      </c>
+      <c r="D4" s="16">
+        <v>100</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="G4" s="16">
+        <v>10</v>
+      </c>
+      <c r="H4" s="16">
+        <v>13.51</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0.32</v>
+      </c>
+      <c r="J4" s="18">
+        <v>5785.32</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="L4" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="M4" s="18">
+        <v>26315.25</v>
+      </c>
+      <c r="N4" s="16">
+        <v>1.82</v>
+      </c>
+      <c r="O4" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P4" s="18">
+        <v>23952.5</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="R4" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="S4" s="18">
+        <v>8664.67</v>
+      </c>
+      <c r="T4" s="16">
+        <v>2.42</v>
+      </c>
+      <c r="U4" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B5" s="16">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="C5" s="17">
+        <v>45382.66</v>
+      </c>
+      <c r="D5" s="16">
+        <v>100</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="G5" s="16">
+        <v>24</v>
+      </c>
+      <c r="H5" s="16">
+        <v>14.2</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0.31</v>
+      </c>
+      <c r="J5" s="18">
+        <v>5820.98</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="M5" s="18">
+        <v>27000.39</v>
+      </c>
+      <c r="N5" s="16">
+        <v>1.87</v>
+      </c>
+      <c r="O5" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P5" s="18">
+        <v>24704.91</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="R5" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="S5" s="18">
+        <v>10952.78</v>
+      </c>
+      <c r="T5" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="U5" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="C6" s="17">
+        <v>45382.66</v>
+      </c>
+      <c r="D6" s="16">
+        <v>100</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="G6" s="16">
+        <v>20</v>
+      </c>
+      <c r="H6" s="16">
+        <v>14.19</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0.31</v>
+      </c>
+      <c r="J6" s="18">
+        <v>5828.96</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="M6" s="18">
+        <v>26961.26</v>
+      </c>
+      <c r="N6" s="16">
+        <v>1.86</v>
+      </c>
+      <c r="O6" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P6" s="18">
+        <v>24754.33</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="R6" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="S6" s="18">
+        <v>10965.51</v>
+      </c>
+      <c r="T6" s="16">
+        <v>3.06</v>
+      </c>
+      <c r="U6" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B7" s="16">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="C7" s="17">
+        <v>49618.38</v>
+      </c>
+      <c r="D7" s="16">
+        <v>100</v>
+      </c>
+      <c r="E7" s="16">
+        <v>4</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.33</v>
+      </c>
+      <c r="G7" s="16">
+        <v>39</v>
+      </c>
+      <c r="H7" s="16">
+        <v>15.44</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0.31</v>
+      </c>
+      <c r="J7" s="18">
+        <v>5836.37</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="M7" s="18">
+        <v>27674.83</v>
+      </c>
+      <c r="N7" s="16">
+        <v>1.91</v>
+      </c>
+      <c r="O7" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P7" s="18">
+        <v>25265.91</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="R7" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="S7" s="18">
+        <v>14508.01</v>
+      </c>
+      <c r="T7" s="16">
+        <v>4.01</v>
+      </c>
+      <c r="U7" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="C8" s="17">
+        <v>49618.38</v>
+      </c>
+      <c r="D8" s="16">
+        <v>99.99</v>
+      </c>
+      <c r="E8" s="16">
+        <v>2</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="G8" s="16">
+        <v>42</v>
+      </c>
+      <c r="H8" s="16">
+        <v>15.31</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0.31</v>
+      </c>
+      <c r="J8" s="18">
+        <v>5836.03</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="M8" s="18">
+        <v>27669.55</v>
+      </c>
+      <c r="N8" s="16">
+        <v>1.91</v>
+      </c>
+      <c r="O8" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P8" s="18">
+        <v>25247.11</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="R8" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="S8" s="18">
+        <v>14571.72</v>
+      </c>
+      <c r="T8" s="16">
+        <v>4.04</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B9" s="16">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="C9" s="17">
+        <v>49618.38</v>
+      </c>
+      <c r="D9" s="16">
+        <v>99.99</v>
+      </c>
+      <c r="E9" s="16">
+        <v>6</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="16">
+        <v>40</v>
+      </c>
+      <c r="H9" s="16">
+        <v>15.62</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0.31</v>
+      </c>
+      <c r="J9" s="18">
+        <v>5827.86</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="M9" s="18">
+        <v>27641.15</v>
+      </c>
+      <c r="N9" s="16">
+        <v>1.91</v>
+      </c>
+      <c r="O9" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P9" s="18">
+        <v>25223.98</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="S9" s="18">
+        <v>14526.55</v>
+      </c>
+      <c r="T9" s="16">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="19"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="C10" s="17">
+        <v>54459.19</v>
+      </c>
+      <c r="D10" s="16">
+        <v>99.93</v>
+      </c>
+      <c r="E10" s="16">
+        <v>11</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.91</v>
+      </c>
+      <c r="G10" s="16">
+        <v>57</v>
+      </c>
+      <c r="H10" s="16">
+        <v>17.3</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0.32</v>
+      </c>
+      <c r="J10" s="18">
+        <v>5843.33</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="L10" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="M10" s="18">
+        <v>28068.48</v>
+      </c>
+      <c r="N10" s="16">
+        <v>1.92</v>
+      </c>
+      <c r="O10" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P10" s="18">
+        <v>24689.03</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="R10" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="S10" s="18">
+        <v>19115.05</v>
+      </c>
+      <c r="T10" s="16">
+        <v>5.28</v>
+      </c>
+      <c r="U10" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="C11" s="17">
+        <v>54459.19</v>
+      </c>
+      <c r="D11" s="16">
+        <v>99.89</v>
+      </c>
+      <c r="E11" s="16">
+        <v>13</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1.08</v>
+      </c>
+      <c r="G11" s="16">
+        <v>55</v>
+      </c>
+      <c r="H11" s="16">
+        <v>17.46</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0.32</v>
+      </c>
+      <c r="J11" s="18">
+        <v>5836.73</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="M11" s="18">
+        <v>28035.360000000001</v>
+      </c>
+      <c r="N11" s="16">
+        <v>1.93</v>
+      </c>
+      <c r="O11" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P11" s="18">
+        <v>24615.67</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="R11" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="S11" s="18">
+        <v>19105.810000000001</v>
+      </c>
+      <c r="T11" s="16">
+        <v>5.26</v>
+      </c>
+      <c r="U11" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="C12" s="17">
+        <v>54459.19</v>
+      </c>
+      <c r="D12" s="16">
+        <v>99.92</v>
+      </c>
+      <c r="E12" s="16">
+        <v>9</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.74</v>
+      </c>
+      <c r="G12" s="16">
+        <v>62</v>
+      </c>
+      <c r="H12" s="16">
+        <v>17.14</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0.31</v>
+      </c>
+      <c r="J12" s="18">
+        <v>5841.13</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="L12" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="M12" s="18">
+        <v>28071.41</v>
+      </c>
+      <c r="N12" s="16">
+        <v>1.94</v>
+      </c>
+      <c r="O12" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P12" s="18">
+        <v>24619.82</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="R12" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="S12" s="18">
+        <v>19108.71</v>
+      </c>
+      <c r="T12" s="16">
+        <v>5.27</v>
+      </c>
+      <c r="U12" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B13" s="16">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="C13" s="17">
+        <v>57484.7</v>
+      </c>
+      <c r="D13" s="16">
+        <v>99.61</v>
+      </c>
+      <c r="E13" s="16">
+        <v>36</v>
+      </c>
+      <c r="F13" s="16">
+        <v>2.98</v>
+      </c>
+      <c r="G13" s="16">
+        <v>84</v>
+      </c>
+      <c r="H13" s="16">
+        <v>20.22</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="J13" s="18">
+        <v>5850.33</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="L13" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="M13" s="18">
+        <v>28163.73</v>
+      </c>
+      <c r="N13" s="16">
+        <v>1.94</v>
+      </c>
+      <c r="O13" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P13" s="18">
+        <v>23663.4</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="R13" s="16">
+        <v>0.38</v>
+      </c>
+      <c r="S13" s="18">
+        <v>22138.15</v>
+      </c>
+      <c r="T13" s="16">
+        <v>6.11</v>
+      </c>
+      <c r="U13" s="16">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>42357.15</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1">
-        <v>13.51</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="I2" s="1">
-        <v>5777.26</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="C14" s="17">
+        <v>57484.7</v>
+      </c>
+      <c r="D14" s="16">
+        <v>99.54</v>
+      </c>
+      <c r="E14" s="16">
+        <v>43</v>
+      </c>
+      <c r="F14" s="16">
+        <v>3.56</v>
+      </c>
+      <c r="G14" s="16">
+        <v>82</v>
+      </c>
+      <c r="H14" s="16">
+        <v>20.79</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="J14" s="18">
+        <v>5855.78</v>
+      </c>
+      <c r="K14" s="16">
         <v>0.22</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L14" s="16">
         <v>0.04</v>
       </c>
-      <c r="L2" s="1">
-        <v>26273.14</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1.81</v>
-      </c>
-      <c r="N2" s="1">
+      <c r="M14" s="18">
+        <v>28181.02</v>
+      </c>
+      <c r="N14" s="16">
+        <v>1.94</v>
+      </c>
+      <c r="O14" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O2" s="1">
-        <v>23932.1</v>
-      </c>
-      <c r="P2" s="1">
+      <c r="P14" s="18">
+        <v>23609.47</v>
+      </c>
+      <c r="Q14" s="16">
         <v>8.9700000000000006</v>
       </c>
-      <c r="Q2" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="R2" s="1">
-        <v>8675.8700000000008</v>
-      </c>
-      <c r="S2" s="1">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="T2" s="1">
+      <c r="R14" s="16">
+        <v>0.38</v>
+      </c>
+      <c r="S14" s="18">
+        <v>22109.25</v>
+      </c>
+      <c r="T14" s="16">
+        <v>6.1</v>
+      </c>
+      <c r="U14" s="16">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42357.15</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="F3" s="1">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1">
-        <v>13.51</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="I3" s="1">
-        <v>5785.32</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L3" s="1">
-        <v>26315.25</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1.82</v>
-      </c>
-      <c r="N3" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O3" s="1">
-        <v>23952.5</v>
-      </c>
-      <c r="P3" s="1">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="R3" s="1">
-        <v>8664.67</v>
-      </c>
-      <c r="S3" s="1">
-        <v>2.42</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45382.66</v>
-      </c>
-      <c r="C4" s="1">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="F4" s="1">
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="J15" s="27">
+        <f>SUM(J3:J14)</f>
+        <v>69940.08</v>
+      </c>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="27">
+        <f>SUM(M3:M14)</f>
+        <v>330055.56999999995</v>
+      </c>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="27">
+        <f>SUM(S3:S14)</f>
+        <v>184442.08</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1">
-        <v>14.2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="I4" s="1">
-        <v>5820.98</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L4" s="1">
-        <v>27000.39</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1.87</v>
-      </c>
-      <c r="N4" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O4" s="1">
-        <v>24704.91</v>
-      </c>
-      <c r="P4" s="1">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="R4" s="1">
-        <v>10952.78</v>
-      </c>
-      <c r="S4" s="1">
-        <v>3.06</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45382.66</v>
-      </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="F5" s="1">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1">
-        <v>14.19</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="I5" s="1">
-        <v>5828.96</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L5" s="1">
-        <v>26961.26</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1.86</v>
-      </c>
-      <c r="N5" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O5" s="1">
-        <v>24754.33</v>
-      </c>
-      <c r="P5" s="1">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="R5" s="1">
-        <v>10965.51</v>
-      </c>
-      <c r="S5" s="1">
-        <v>3.06</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>49618.38</v>
-      </c>
-      <c r="C6" s="1">
-        <v>100</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="F6" s="1">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1">
-        <v>15.44</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="I6" s="1">
-        <v>5836.37</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L6" s="1">
-        <v>27674.83</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1.91</v>
-      </c>
-      <c r="N6" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O6" s="1">
-        <v>25265.91</v>
-      </c>
-      <c r="P6" s="1">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="R6" s="1">
-        <v>14508.01</v>
-      </c>
-      <c r="S6" s="1">
-        <v>4.01</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="E17">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1">
+        <v>130</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>49618.38</v>
-      </c>
-      <c r="C7" s="1">
-        <v>99.99</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="F7" s="1">
-        <v>42</v>
-      </c>
-      <c r="G7" s="1">
-        <v>15.31</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="I7" s="1">
-        <v>5836.03</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L7" s="1">
-        <v>27669.55</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1.91</v>
-      </c>
-      <c r="N7" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O7" s="1">
-        <v>25247.11</v>
-      </c>
-      <c r="P7" s="1">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="R7" s="1">
-        <v>14571.72</v>
-      </c>
-      <c r="S7" s="1">
-        <v>4.04</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>49618.38</v>
-      </c>
-      <c r="C8" s="1">
-        <v>99.99</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>40</v>
-      </c>
-      <c r="G8" s="1">
-        <v>15.62</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="I8" s="1">
-        <v>5827.86</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L8" s="1">
-        <v>27641.15</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1.91</v>
-      </c>
-      <c r="N8" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O8" s="1">
-        <v>25223.98</v>
-      </c>
-      <c r="P8" s="1">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="R8" s="1">
-        <v>14526.55</v>
-      </c>
-      <c r="S8" s="1">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>54459.19</v>
-      </c>
-      <c r="C9" s="1">
-        <v>99.93</v>
-      </c>
-      <c r="D9" s="1">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="F9" s="1">
-        <v>57</v>
-      </c>
-      <c r="G9" s="1">
-        <v>17.3</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="I9" s="1">
-        <v>5843.33</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L9" s="1">
-        <v>28068.48</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1.92</v>
-      </c>
-      <c r="N9" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O9" s="1">
-        <v>24689.03</v>
-      </c>
-      <c r="P9" s="1">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="R9" s="1">
-        <v>19115.05</v>
-      </c>
-      <c r="S9" s="1">
-        <v>5.28</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>54459.19</v>
-      </c>
-      <c r="C10" s="1">
-        <v>99.89</v>
-      </c>
-      <c r="D10" s="1">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.08</v>
-      </c>
-      <c r="F10" s="1">
-        <v>55</v>
-      </c>
-      <c r="G10" s="1">
-        <v>17.46</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="I10" s="1">
-        <v>5836.73</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L10" s="1">
-        <v>28035.360000000001</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1.93</v>
-      </c>
-      <c r="N10" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O10" s="1">
-        <v>24615.67</v>
-      </c>
-      <c r="P10" s="1">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="R10" s="1">
-        <v>19105.810000000001</v>
-      </c>
-      <c r="S10" s="1">
-        <v>5.26</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>54459.19</v>
-      </c>
-      <c r="C11" s="1">
-        <v>99.92</v>
-      </c>
-      <c r="D11" s="1">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="F11" s="1">
-        <v>62</v>
-      </c>
-      <c r="G11" s="1">
-        <v>17.14</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="I11" s="1">
-        <v>5841.13</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L11" s="1">
-        <v>28071.41</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="N11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O11" s="1">
-        <v>24619.82</v>
-      </c>
-      <c r="P11" s="1">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="R11" s="1">
-        <v>19108.71</v>
-      </c>
-      <c r="S11" s="1">
-        <v>5.27</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>57484.7</v>
-      </c>
-      <c r="C12" s="1">
-        <v>99.61</v>
-      </c>
-      <c r="D12" s="1">
-        <v>36</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2.98</v>
-      </c>
-      <c r="F12" s="1">
-        <v>84</v>
-      </c>
-      <c r="G12" s="1">
-        <v>20.22</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="I12" s="1">
-        <v>5850.33</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L12" s="1">
-        <v>28163.73</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="N12" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O12" s="1">
-        <v>23663.4</v>
-      </c>
-      <c r="P12" s="1">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="R12" s="1">
-        <v>22138.15</v>
-      </c>
-      <c r="S12" s="1">
-        <v>6.11</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>57484.7</v>
-      </c>
-      <c r="C13" s="1">
-        <v>99.54</v>
-      </c>
-      <c r="D13" s="1">
-        <v>43</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3.56</v>
-      </c>
-      <c r="F13" s="1">
-        <v>82</v>
-      </c>
-      <c r="G13" s="1">
-        <v>20.79</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="I13" s="1">
-        <v>5855.78</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="L13" s="1">
-        <v>28181.02</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="N13" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O13" s="1">
-        <v>23609.47</v>
-      </c>
-      <c r="P13" s="1">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="R13" s="1">
-        <v>22109.25</v>
-      </c>
-      <c r="S13" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="1">
-        <v>130</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="1">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F19" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="X20" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y20" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z20" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="X21" s="19">
+        <f>J15</f>
+        <v>69940.08</v>
+      </c>
+      <c r="Y21" s="19">
+        <f>M15</f>
+        <v>330055.56999999995</v>
+      </c>
+      <c r="Z21" s="19">
+        <f>S15</f>
+        <v>184442.08</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6525,13 +9400,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02227B37-9797-C44C-BB34-705965C937A8}">
   <dimension ref="D6:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="G16" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>36</v>
       </c>
@@ -6539,7 +9414,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>37</v>
       </c>
@@ -6547,7 +9422,7 @@
         <v>278.2</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>38</v>
       </c>
@@ -6555,7 +9430,7 @@
         <v>251.8</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>39</v>
       </c>
@@ -6563,7 +9438,7 @@
         <v>269.2</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>40</v>
       </c>
@@ -6571,7 +9446,7 @@
         <v>256.2</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>41</v>
       </c>
@@ -6579,7 +9454,7 @@
         <v>197.8</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>42</v>
       </c>
@@ -6587,7 +9462,7 @@
         <v>156.4</v>
       </c>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>43</v>
       </c>
@@ -6595,7 +9470,7 @@
         <v>183.6</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>44</v>
       </c>
@@ -6603,7 +9478,7 @@
         <v>223.6</v>
       </c>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>45</v>
       </c>
@@ -6611,7 +9486,7 @@
         <v>262.2</v>
       </c>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>46</v>
       </c>
@@ -6619,7 +9494,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>47</v>
       </c>
@@ -6628,8 +9503,363 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6837355F-DF0A-4614-B73F-48F8530DE774}">
+  <dimension ref="C4:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="6" style="8" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" style="7" customWidth="1"/>
+    <col min="5" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="45" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="12">
+        <v>128</v>
+      </c>
+      <c r="F5" s="12">
+        <v>522</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="H5" s="12">
+        <v>194.69</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>52</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="H6" s="12">
+        <v>138.47</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="213" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="11">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>52</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="H7" s="12">
+        <v>122.63</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="5" id="{8E34DB7A-E63D-46CF-A1E5-A70FAF4FFB3E}">
+            <x14:iconSet iconSet="3Symbols" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E5:E7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{0B6E5AFB-CBBA-4E58-85ED-8D885E767BAB}">
+            <x14:iconSet iconSet="3Symbols" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F5:F7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{55B01A00-3720-4EBD-AC3A-CAF54C41C4F7}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>10</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G5:G7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{68EE67C9-30FB-4B06-94DB-FF8F1A81DE17}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>10</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H5:H7</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9B2DE8-3C0B-4D47-B45B-07D449CB8097}">
+  <dimension ref="D3:AD11"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:AD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="6" width="3.7109375" customWidth="1"/>
+    <col min="7" max="18" width="3.7109375" style="9" customWidth="1"/>
+    <col min="19" max="30" width="3.7109375" customWidth="1"/>
+    <col min="31" max="33" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+    </row>
+    <row r="4" spans="4:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+    </row>
+    <row r="5" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D5" s="34"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+    </row>
+    <row r="6" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+    </row>
+    <row r="7" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D7" s="34"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D8" s="34"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>